--- a/resources/config/plot_param.xlsx
+++ b/resources/config/plot_param.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\quentin.gruet\Code\ems-optimizer\optimAnalyser\data_cplex\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\quentin.gruet\Code\ems-optim-analyser\resources\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71A399B2-DAD0-40AF-AFE0-D38A5BF3269A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26D89B78-D384-483C-854F-00573C0E9689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{8EF7EE7D-02C2-45A4-B057-D146A88B9909}"/>
   </bookViews>
@@ -698,7 +698,7 @@
   <dimension ref="A1:J47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29">
-        <v>1694</v>
+        <v>1799</v>
       </c>
       <c r="B29" t="s">
         <v>56</v>
